--- a/DSA QUESTIONS 2.xlsx
+++ b/DSA QUESTIONS 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/938afabc2acb16cd/Desktop/Preparation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{96CCAE0F-925D-4CBF-AD3C-712607D8F90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F32DCE1F-91CD-4208-89BE-256CED02FEA7}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{96CCAE0F-925D-4CBF-AD3C-712607D8F90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D4898F8-543E-49EB-B22D-6AF7BC08456D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="641">
   <si>
     <t>DSA by Shradha Didi &amp; Aman Bhaiya</t>
   </si>
@@ -1945,6 +1945,9 @@
   </si>
   <si>
     <t>minimum sum partision</t>
+  </si>
+  <si>
+    <t>*** Stacks &amp; Queues ***</t>
   </si>
 </sst>
 </file>
@@ -2748,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2819,7 +2822,7 @@
       <c r="C8" s="50"/>
     </row>
     <row r="9" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="7"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="4"/>
       <c r="C9" s="25"/>
     </row>
@@ -4398,7 +4401,7 @@
       </c>
     </row>
     <row r="162" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="13" t="s">
+      <c r="A162" s="23" t="s">
         <v>237</v>
       </c>
       <c r="B162" s="12" t="s">
@@ -4409,7 +4412,7 @@
       </c>
     </row>
     <row r="163" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="13" t="s">
+      <c r="A163" s="23" t="s">
         <v>237</v>
       </c>
       <c r="B163" s="12" t="s">
@@ -4420,7 +4423,7 @@
       </c>
     </row>
     <row r="164" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A164" s="13" t="s">
+      <c r="A164" s="23" t="s">
         <v>237</v>
       </c>
       <c r="B164" s="12" t="s">
@@ -4431,7 +4434,7 @@
       </c>
     </row>
     <row r="165" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A165" s="13" t="s">
+      <c r="A165" s="23" t="s">
         <v>237</v>
       </c>
       <c r="B165" s="12" t="s">
@@ -4442,7 +4445,7 @@
       </c>
     </row>
     <row r="166" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A166" s="13" t="s">
+      <c r="A166" s="23" t="s">
         <v>237</v>
       </c>
       <c r="B166" s="14" t="s">
@@ -4453,7 +4456,7 @@
       </c>
     </row>
     <row r="167" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A167" s="13" t="s">
+      <c r="A167" s="23" t="s">
         <v>237</v>
       </c>
       <c r="B167" s="12" t="s">
@@ -4475,7 +4478,7 @@
       </c>
     </row>
     <row r="169" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A169" s="13" t="s">
+      <c r="A169" s="23" t="s">
         <v>237</v>
       </c>
       <c r="B169" s="12" t="s">
@@ -4486,7 +4489,7 @@
       </c>
     </row>
     <row r="170" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A170" s="13" t="s">
+      <c r="A170" s="23" t="s">
         <v>237</v>
       </c>
       <c r="B170" s="12" t="s">
@@ -4508,7 +4511,7 @@
       </c>
     </row>
     <row r="172" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="13" t="s">
+      <c r="A172" s="23" t="s">
         <v>237</v>
       </c>
       <c r="B172" s="12" t="s">
@@ -4519,7 +4522,7 @@
       </c>
     </row>
     <row r="173" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="13" t="s">
+      <c r="A173" s="23" t="s">
         <v>237</v>
       </c>
       <c r="B173" s="12" t="s">
@@ -4530,7 +4533,7 @@
       </c>
     </row>
     <row r="174" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="13" t="s">
+      <c r="A174" s="23" t="s">
         <v>237</v>
       </c>
       <c r="B174" s="14" t="s">
@@ -4541,7 +4544,7 @@
       </c>
     </row>
     <row r="175" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A175" s="13" t="s">
+      <c r="A175" s="23" t="s">
         <v>237</v>
       </c>
       <c r="B175" s="14" t="s">
@@ -4552,7 +4555,7 @@
       </c>
     </row>
     <row r="176" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A176" s="13" t="s">
+      <c r="A176" s="23" t="s">
         <v>237</v>
       </c>
       <c r="B176" s="14" t="s">
@@ -4574,7 +4577,7 @@
       </c>
     </row>
     <row r="178" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A178" s="15" t="s">
+      <c r="A178" s="31" t="s">
         <v>237</v>
       </c>
       <c r="B178" s="12" t="s">
@@ -4585,8 +4588,8 @@
       </c>
     </row>
     <row r="179" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A179" s="15" t="s">
-        <v>237</v>
+      <c r="A179" s="31" t="s">
+        <v>640</v>
       </c>
       <c r="B179" s="12" t="s">
         <v>279</v>
@@ -4607,7 +4610,7 @@
       </c>
     </row>
     <row r="181" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A181" s="15" t="s">
+      <c r="A181" s="31" t="s">
         <v>237</v>
       </c>
       <c r="B181" s="14" t="s">
@@ -4618,7 +4621,7 @@
       </c>
     </row>
     <row r="182" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A182" s="15" t="s">
+      <c r="A182" s="31" t="s">
         <v>237</v>
       </c>
       <c r="B182" s="12" t="s">
@@ -4639,7 +4642,7 @@
       <c r="C184" s="16"/>
     </row>
     <row r="185" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A185" s="11" t="s">
+      <c r="A185" s="28" t="s">
         <v>285</v>
       </c>
       <c r="B185" s="12" t="s">
@@ -4650,7 +4653,7 @@
       </c>
     </row>
     <row r="186" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="11" t="s">
+      <c r="A186" s="28" t="s">
         <v>285</v>
       </c>
       <c r="B186" s="12" t="s">

--- a/DSA QUESTIONS 2.xlsx
+++ b/DSA QUESTIONS 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/938afabc2acb16cd/Desktop/Preparation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{96CCAE0F-925D-4CBF-AD3C-712607D8F90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D4898F8-543E-49EB-B22D-6AF7BC08456D}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{DF2838FC-92B7-40FB-B0E8-D04845D9F61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9BE9614-F207-4474-BE06-C8D6E1A4ED49}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2751,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A186" sqref="A186"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4664,7 +4664,7 @@
       </c>
     </row>
     <row r="187" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A187" s="11" t="s">
+      <c r="A187" s="28" t="s">
         <v>285</v>
       </c>
       <c r="B187" s="12" t="s">
@@ -4675,7 +4675,7 @@
       </c>
     </row>
     <row r="188" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A188" s="11" t="s">
+      <c r="A188" s="28" t="s">
         <v>285</v>
       </c>
       <c r="B188" s="12" t="s">
@@ -4686,7 +4686,7 @@
       </c>
     </row>
     <row r="189" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A189" s="11" t="s">
+      <c r="A189" s="28" t="s">
         <v>285</v>
       </c>
       <c r="B189" s="12" t="s">
@@ -4697,7 +4697,7 @@
       </c>
     </row>
     <row r="190" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A190" s="11" t="s">
+      <c r="A190" s="28" t="s">
         <v>285</v>
       </c>
       <c r="B190" s="12" t="s">
@@ -4706,7 +4706,7 @@
       <c r="C190" s="20"/>
     </row>
     <row r="191" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A191" s="11" t="s">
+      <c r="A191" s="28" t="s">
         <v>285</v>
       </c>
       <c r="B191" s="12" t="s">
@@ -4717,7 +4717,7 @@
       </c>
     </row>
     <row r="192" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A192" s="13" t="s">
+      <c r="A192" s="23" t="s">
         <v>285</v>
       </c>
       <c r="B192" s="12" t="s">
@@ -4728,7 +4728,7 @@
       </c>
     </row>
     <row r="193" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A193" s="13" t="s">
+      <c r="A193" s="23" t="s">
         <v>285</v>
       </c>
       <c r="B193" s="12" t="s">
@@ -4737,7 +4737,7 @@
       <c r="C193" s="20"/>
     </row>
     <row r="194" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A194" s="13" t="s">
+      <c r="A194" s="23" t="s">
         <v>285</v>
       </c>
       <c r="B194" s="12" t="s">
@@ -4748,7 +4748,7 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A195" s="13" t="s">
+      <c r="A195" s="23" t="s">
         <v>285</v>
       </c>
       <c r="B195" s="12" t="s">
@@ -4770,7 +4770,7 @@
       </c>
     </row>
     <row r="197" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="13" t="s">
+      <c r="A197" s="23" t="s">
         <v>285</v>
       </c>
       <c r="B197" s="12" t="s">
@@ -4781,7 +4781,7 @@
       </c>
     </row>
     <row r="198" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A198" s="13" t="s">
+      <c r="A198" s="23" t="s">
         <v>285</v>
       </c>
       <c r="B198" s="12" t="s">

--- a/DSA QUESTIONS 2.xlsx
+++ b/DSA QUESTIONS 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/938afabc2acb16cd/Desktop/Preparation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{DF2838FC-92B7-40FB-B0E8-D04845D9F61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9BE9614-F207-4474-BE06-C8D6E1A4ED49}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{DF2838FC-92B7-40FB-B0E8-D04845D9F61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72BA3B59-90C1-4CD8-B51A-7C022B88B999}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2751,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198"/>
+    <sheetView tabSelected="1" topLeftCell="A227" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A241" sqref="A241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4792,7 +4792,7 @@
       </c>
     </row>
     <row r="199" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A199" s="13" t="s">
+      <c r="A199" s="23" t="s">
         <v>285</v>
       </c>
       <c r="B199" s="12" t="s">
@@ -4814,7 +4814,7 @@
       </c>
     </row>
     <row r="201" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A201" s="15" t="s">
+      <c r="A201" s="23" t="s">
         <v>285</v>
       </c>
       <c r="B201" s="12" t="s">
@@ -4823,7 +4823,7 @@
       <c r="C201" s="17"/>
     </row>
     <row r="202" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A202" s="15" t="s">
+      <c r="A202" s="23" t="s">
         <v>285</v>
       </c>
       <c r="B202" s="12" t="s">
@@ -4834,7 +4834,7 @@
       </c>
     </row>
     <row r="203" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A203" s="15" t="s">
+      <c r="A203" s="23" t="s">
         <v>285</v>
       </c>
       <c r="B203" s="12" t="s">
@@ -4863,7 +4863,7 @@
       <c r="C205" s="17"/>
     </row>
     <row r="206" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A206" s="15" t="s">
+      <c r="A206" s="23" t="s">
         <v>285</v>
       </c>
       <c r="B206" s="12" t="s">
@@ -4884,7 +4884,7 @@
       <c r="C208" s="16"/>
     </row>
     <row r="209" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A209" s="11" t="s">
+      <c r="A209" s="28" t="s">
         <v>315</v>
       </c>
       <c r="B209" s="12" t="s">
@@ -4895,7 +4895,7 @@
       </c>
     </row>
     <row r="210" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A210" s="11" t="s">
+      <c r="A210" s="28" t="s">
         <v>315</v>
       </c>
       <c r="B210" s="12" t="s">
@@ -4906,7 +4906,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A211" s="11" t="s">
+      <c r="A211" s="28" t="s">
         <v>315</v>
       </c>
       <c r="B211" s="12" t="s">
@@ -4917,7 +4917,7 @@
       </c>
     </row>
     <row r="212" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A212" s="11" t="s">
+      <c r="A212" s="28" t="s">
         <v>315</v>
       </c>
       <c r="B212" s="12" t="s">
@@ -4928,7 +4928,7 @@
       </c>
     </row>
     <row r="213" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="11" t="s">
+      <c r="A213" s="28" t="s">
         <v>315</v>
       </c>
       <c r="B213" s="12" t="s">
@@ -4939,7 +4939,7 @@
       </c>
     </row>
     <row r="214" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A214" s="11" t="s">
+      <c r="A214" s="28" t="s">
         <v>315</v>
       </c>
       <c r="B214" s="12" t="s">
@@ -4950,7 +4950,7 @@
       </c>
     </row>
     <row r="215" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A215" s="11" t="s">
+      <c r="A215" s="28" t="s">
         <v>315</v>
       </c>
       <c r="B215" s="12" t="s">
@@ -4961,7 +4961,7 @@
       </c>
     </row>
     <row r="216" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A216" s="11" t="s">
+      <c r="A216" s="28" t="s">
         <v>315</v>
       </c>
       <c r="B216" s="12" t="s">
@@ -4972,7 +4972,7 @@
       </c>
     </row>
     <row r="217" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A217" s="11" t="s">
+      <c r="A217" s="28" t="s">
         <v>315</v>
       </c>
       <c r="B217" s="12" t="s">
@@ -4983,7 +4983,7 @@
       </c>
     </row>
     <row r="218" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="11" t="s">
+      <c r="A218" s="28" t="s">
         <v>315</v>
       </c>
       <c r="B218" s="12" t="s">
@@ -4994,7 +4994,7 @@
       </c>
     </row>
     <row r="219" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A219" s="11" t="s">
+      <c r="A219" s="28" t="s">
         <v>315</v>
       </c>
       <c r="B219" s="12" t="s">
@@ -5005,7 +5005,7 @@
       </c>
     </row>
     <row r="220" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="11" t="s">
+      <c r="A220" s="28" t="s">
         <v>315</v>
       </c>
       <c r="B220" s="12" t="s">
@@ -5016,7 +5016,7 @@
       </c>
     </row>
     <row r="221" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A221" s="11" t="s">
+      <c r="A221" s="28" t="s">
         <v>315</v>
       </c>
       <c r="B221" s="12" t="s">
@@ -5027,7 +5027,7 @@
       </c>
     </row>
     <row r="222" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A222" s="11" t="s">
+      <c r="A222" s="28" t="s">
         <v>315</v>
       </c>
       <c r="B222" s="12" t="s">
@@ -5038,7 +5038,7 @@
       </c>
     </row>
     <row r="223" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A223" s="13" t="s">
+      <c r="A223" s="23" t="s">
         <v>315</v>
       </c>
       <c r="B223" s="12" t="s">
@@ -5049,7 +5049,7 @@
       </c>
     </row>
     <row r="224" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A224" s="13" t="s">
+      <c r="A224" s="23" t="s">
         <v>315</v>
       </c>
       <c r="B224" s="12" t="s">
@@ -5060,7 +5060,7 @@
       </c>
     </row>
     <row r="225" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="13" t="s">
+      <c r="A225" s="23" t="s">
         <v>315</v>
       </c>
       <c r="B225" s="12" t="s">
@@ -5071,7 +5071,7 @@
       </c>
     </row>
     <row r="226" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A226" s="13" t="s">
+      <c r="A226" s="23" t="s">
         <v>315</v>
       </c>
       <c r="B226" s="12" t="s">
@@ -5082,7 +5082,7 @@
       </c>
     </row>
     <row r="227" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A227" s="13" t="s">
+      <c r="A227" s="23" t="s">
         <v>315</v>
       </c>
       <c r="B227" s="12" t="s">
@@ -5093,7 +5093,7 @@
       </c>
     </row>
     <row r="228" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A228" s="13" t="s">
+      <c r="A228" s="23" t="s">
         <v>315</v>
       </c>
       <c r="B228" s="12" t="s">
@@ -5104,7 +5104,7 @@
       </c>
     </row>
     <row r="229" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A229" s="13" t="s">
+      <c r="A229" s="23" t="s">
         <v>315</v>
       </c>
       <c r="B229" s="12" t="s">
@@ -5115,7 +5115,7 @@
       </c>
     </row>
     <row r="230" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A230" s="13" t="s">
+      <c r="A230" s="23" t="s">
         <v>315</v>
       </c>
       <c r="B230" s="12" t="s">
@@ -5126,7 +5126,7 @@
       </c>
     </row>
     <row r="231" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A231" s="13" t="s">
+      <c r="A231" s="23" t="s">
         <v>315</v>
       </c>
       <c r="B231" s="12" t="s">
@@ -5137,7 +5137,7 @@
       </c>
     </row>
     <row r="232" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A232" s="13" t="s">
+      <c r="A232" s="23" t="s">
         <v>315</v>
       </c>
       <c r="B232" s="12" t="s">
@@ -5148,7 +5148,7 @@
       </c>
     </row>
     <row r="233" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A233" s="13" t="s">
+      <c r="A233" s="23" t="s">
         <v>315</v>
       </c>
       <c r="B233" s="12" t="s">
@@ -5159,7 +5159,7 @@
       </c>
     </row>
     <row r="234" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A234" s="13" t="s">
+      <c r="A234" s="23" t="s">
         <v>315</v>
       </c>
       <c r="B234" s="12" t="s">
@@ -5170,7 +5170,7 @@
       </c>
     </row>
     <row r="235" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A235" s="13" t="s">
+      <c r="A235" s="23" t="s">
         <v>315</v>
       </c>
       <c r="B235" s="12" t="s">
@@ -5181,7 +5181,7 @@
       </c>
     </row>
     <row r="236" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A236" s="13" t="s">
+      <c r="A236" s="23" t="s">
         <v>315</v>
       </c>
       <c r="B236" s="12" t="s">
@@ -5203,7 +5203,7 @@
       </c>
     </row>
     <row r="238" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A238" s="15" t="s">
+      <c r="A238" s="31" t="s">
         <v>315</v>
       </c>
       <c r="B238" s="12" t="s">
@@ -5214,7 +5214,7 @@
       </c>
     </row>
     <row r="239" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A239" s="15" t="s">
+      <c r="A239" s="31" t="s">
         <v>315</v>
       </c>
       <c r="B239" s="12" t="s">
@@ -5225,7 +5225,7 @@
       </c>
     </row>
     <row r="240" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A240" s="15" t="s">
+      <c r="A240" s="31" t="s">
         <v>315</v>
       </c>
       <c r="B240" s="12" t="s">
@@ -5236,7 +5236,7 @@
       </c>
     </row>
     <row r="241" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A241" s="15" t="s">
+      <c r="A241" s="31" t="s">
         <v>315</v>
       </c>
       <c r="B241" s="12" t="s">

--- a/DSA QUESTIONS 2.xlsx
+++ b/DSA QUESTIONS 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/938afabc2acb16cd/Desktop/Preparation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{DF2838FC-92B7-40FB-B0E8-D04845D9F61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72BA3B59-90C1-4CD8-B51A-7C022B88B999}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{DF2838FC-92B7-40FB-B0E8-D04845D9F61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71696CEB-2C01-417B-A74B-EF4E0D5066ED}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2751,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A241" sqref="A241"/>
+    <sheetView tabSelected="1" topLeftCell="A306" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B315" sqref="B315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5257,7 +5257,7 @@
       <c r="C243" s="16"/>
     </row>
     <row r="244" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A244" s="11" t="s">
+      <c r="A244" s="28" t="s">
         <v>374</v>
       </c>
       <c r="B244" s="12" t="s">
@@ -5268,7 +5268,7 @@
       </c>
     </row>
     <row r="245" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A245" s="11" t="s">
+      <c r="A245" s="28" t="s">
         <v>374</v>
       </c>
       <c r="B245" s="12" t="s">
@@ -5279,7 +5279,7 @@
       </c>
     </row>
     <row r="246" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A246" s="11" t="s">
+      <c r="A246" s="28" t="s">
         <v>374</v>
       </c>
       <c r="B246" s="12" t="s">
@@ -5290,7 +5290,7 @@
       </c>
     </row>
     <row r="247" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A247" s="11" t="s">
+      <c r="A247" s="28" t="s">
         <v>374</v>
       </c>
       <c r="B247" s="12" t="s">
@@ -5301,7 +5301,7 @@
       </c>
     </row>
     <row r="248" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="11" t="s">
+      <c r="A248" s="28" t="s">
         <v>374</v>
       </c>
       <c r="B248" s="12" t="s">
@@ -5312,7 +5312,7 @@
       </c>
     </row>
     <row r="249" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="11" t="s">
+      <c r="A249" s="28" t="s">
         <v>374</v>
       </c>
       <c r="B249" s="12" t="s">
@@ -5323,7 +5323,7 @@
       </c>
     </row>
     <row r="250" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A250" s="11" t="s">
+      <c r="A250" s="28" t="s">
         <v>374</v>
       </c>
       <c r="B250" s="12" t="s">
@@ -5334,7 +5334,7 @@
       </c>
     </row>
     <row r="251" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A251" s="13" t="s">
+      <c r="A251" s="23" t="s">
         <v>374</v>
       </c>
       <c r="B251" s="12" t="s">
@@ -5345,7 +5345,7 @@
       </c>
     </row>
     <row r="252" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A252" s="13" t="s">
+      <c r="A252" s="23" t="s">
         <v>374</v>
       </c>
       <c r="B252" s="12" t="s">
@@ -5356,7 +5356,7 @@
       </c>
     </row>
     <row r="253" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A253" s="13" t="s">
+      <c r="A253" s="23" t="s">
         <v>374</v>
       </c>
       <c r="B253" s="12" t="s">
@@ -5367,7 +5367,7 @@
       </c>
     </row>
     <row r="254" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A254" s="13" t="s">
+      <c r="A254" s="23" t="s">
         <v>374</v>
       </c>
       <c r="B254" s="12" t="s">
@@ -5378,7 +5378,7 @@
       </c>
     </row>
     <row r="255" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A255" s="13" t="s">
+      <c r="A255" s="23" t="s">
         <v>374</v>
       </c>
       <c r="B255" s="12" t="s">
@@ -5389,7 +5389,7 @@
       </c>
     </row>
     <row r="256" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A256" s="13" t="s">
+      <c r="A256" s="23" t="s">
         <v>374</v>
       </c>
       <c r="B256" s="12" t="s">
@@ -5400,7 +5400,7 @@
       </c>
     </row>
     <row r="257" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A257" s="13" t="s">
+      <c r="A257" s="23" t="s">
         <v>374</v>
       </c>
       <c r="B257" s="12" t="s">
@@ -5411,7 +5411,7 @@
       </c>
     </row>
     <row r="258" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A258" s="13" t="s">
+      <c r="A258" s="23" t="s">
         <v>374</v>
       </c>
       <c r="B258" s="12" t="s">
@@ -5422,7 +5422,7 @@
       </c>
     </row>
     <row r="259" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A259" s="13" t="s">
+      <c r="A259" s="23" t="s">
         <v>374</v>
       </c>
       <c r="B259" s="12" t="s">
@@ -5433,7 +5433,7 @@
       </c>
     </row>
     <row r="260" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A260" s="15" t="s">
+      <c r="A260" s="31" t="s">
         <v>374</v>
       </c>
       <c r="B260" s="12" t="s">
@@ -5455,7 +5455,7 @@
       </c>
     </row>
     <row r="262" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A262" s="15" t="s">
+      <c r="A262" s="31" t="s">
         <v>374</v>
       </c>
       <c r="B262" s="12" t="s">
@@ -5466,7 +5466,7 @@
       </c>
     </row>
     <row r="263" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A263" s="15" t="s">
+      <c r="A263" s="31" t="s">
         <v>374</v>
       </c>
       <c r="B263" s="12" t="s">
@@ -5498,7 +5498,7 @@
       <c r="C266" s="16"/>
     </row>
     <row r="267" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A267" s="13" t="s">
+      <c r="A267" s="23" t="s">
         <v>408</v>
       </c>
       <c r="B267" s="12" t="s">
@@ -5507,7 +5507,7 @@
       <c r="C267" s="17"/>
     </row>
     <row r="268" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A268" s="13" t="s">
+      <c r="A268" s="23" t="s">
         <v>408</v>
       </c>
       <c r="B268" s="12" t="s">
@@ -5518,7 +5518,7 @@
       </c>
     </row>
     <row r="269" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A269" s="13" t="s">
+      <c r="A269" s="23" t="s">
         <v>408</v>
       </c>
       <c r="B269" s="12" t="s">
@@ -5529,7 +5529,7 @@
       </c>
     </row>
     <row r="270" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A270" s="13" t="s">
+      <c r="A270" s="23" t="s">
         <v>408</v>
       </c>
       <c r="B270" s="12" t="s">
@@ -5540,7 +5540,7 @@
       </c>
     </row>
     <row r="271" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A271" s="13" t="s">
+      <c r="A271" s="23" t="s">
         <v>408</v>
       </c>
       <c r="B271" s="12" t="s">
@@ -5551,7 +5551,7 @@
       </c>
     </row>
     <row r="272" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A272" s="13" t="s">
+      <c r="A272" s="23" t="s">
         <v>408</v>
       </c>
       <c r="B272" s="12" t="s">
@@ -5562,7 +5562,7 @@
       </c>
     </row>
     <row r="273" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A273" s="13" t="s">
+      <c r="A273" s="23" t="s">
         <v>408</v>
       </c>
       <c r="B273" s="12" t="s">
@@ -5573,7 +5573,7 @@
       </c>
     </row>
     <row r="274" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A274" s="13" t="s">
+      <c r="A274" s="23" t="s">
         <v>408</v>
       </c>
       <c r="B274" s="12" t="s">
@@ -5584,7 +5584,7 @@
       </c>
     </row>
     <row r="275" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A275" s="13" t="s">
+      <c r="A275" s="23" t="s">
         <v>408</v>
       </c>
       <c r="B275" s="12" t="s">
@@ -5595,7 +5595,7 @@
       </c>
     </row>
     <row r="276" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A276" s="13" t="s">
+      <c r="A276" s="23" t="s">
         <v>408</v>
       </c>
       <c r="B276" s="12" t="s">
@@ -5606,7 +5606,7 @@
       </c>
     </row>
     <row r="277" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A277" s="13" t="s">
+      <c r="A277" s="23" t="s">
         <v>408</v>
       </c>
       <c r="B277" s="12" t="s">
@@ -5617,7 +5617,7 @@
       </c>
     </row>
     <row r="278" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A278" s="13" t="s">
+      <c r="A278" s="23" t="s">
         <v>408</v>
       </c>
       <c r="B278" s="12" t="s">
@@ -5628,7 +5628,7 @@
       </c>
     </row>
     <row r="279" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A279" s="13" t="s">
+      <c r="A279" s="23" t="s">
         <v>408</v>
       </c>
       <c r="B279" s="12" t="s">
@@ -5639,7 +5639,7 @@
       </c>
     </row>
     <row r="280" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A280" s="13" t="s">
+      <c r="A280" s="23" t="s">
         <v>408</v>
       </c>
       <c r="B280" s="12" t="s">
@@ -5650,7 +5650,7 @@
       </c>
     </row>
     <row r="281" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A281" s="13" t="s">
+      <c r="A281" s="23" t="s">
         <v>408</v>
       </c>
       <c r="B281" s="12" t="s">
@@ -5672,7 +5672,7 @@
       </c>
     </row>
     <row r="283" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A283" s="15" t="s">
+      <c r="A283" s="31" t="s">
         <v>408</v>
       </c>
       <c r="B283" s="12" t="s">
@@ -5683,7 +5683,7 @@
       </c>
     </row>
     <row r="284" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A284" s="15" t="s">
+      <c r="A284" s="31" t="s">
         <v>408</v>
       </c>
       <c r="B284" s="12" t="s">
@@ -5694,7 +5694,7 @@
       </c>
     </row>
     <row r="285" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A285" s="15" t="s">
+      <c r="A285" s="31" t="s">
         <v>408</v>
       </c>
       <c r="B285" s="12" t="s">
@@ -5705,7 +5705,7 @@
       </c>
     </row>
     <row r="286" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A286" s="15" t="s">
+      <c r="A286" s="31" t="s">
         <v>408</v>
       </c>
       <c r="B286" s="12" t="s">
@@ -5716,7 +5716,7 @@
       </c>
     </row>
     <row r="287" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A287" s="15" t="s">
+      <c r="A287" s="31" t="s">
         <v>408</v>
       </c>
       <c r="B287" s="12" t="s">
@@ -5727,7 +5727,7 @@
       </c>
     </row>
     <row r="288" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A288" s="15" t="s">
+      <c r="A288" s="31" t="s">
         <v>408</v>
       </c>
       <c r="B288" s="12" t="s">
@@ -5749,7 +5749,7 @@
       </c>
     </row>
     <row r="290" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A290" s="15" t="s">
+      <c r="A290" s="31" t="s">
         <v>408</v>
       </c>
       <c r="B290" s="12" t="s">
@@ -5760,7 +5760,7 @@
       </c>
     </row>
     <row r="291" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A291" s="15" t="s">
+      <c r="A291" s="31" t="s">
         <v>408</v>
       </c>
       <c r="B291" s="12" t="s">
@@ -5771,7 +5771,7 @@
       </c>
     </row>
     <row r="292" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A292" s="15" t="s">
+      <c r="A292" s="31" t="s">
         <v>408</v>
       </c>
       <c r="B292" s="12" t="s">
@@ -5793,7 +5793,7 @@
       </c>
     </row>
     <row r="294" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A294" s="15" t="s">
+      <c r="A294" s="31" t="s">
         <v>408</v>
       </c>
       <c r="B294" s="12" t="s">
@@ -5814,7 +5814,7 @@
       <c r="C296" s="16"/>
     </row>
     <row r="297" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A297" s="11" t="s">
+      <c r="A297" s="28" t="s">
         <v>453</v>
       </c>
       <c r="B297" s="12" t="s">
@@ -5825,7 +5825,7 @@
       </c>
     </row>
     <row r="298" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A298" s="11" t="s">
+      <c r="A298" s="28" t="s">
         <v>453</v>
       </c>
       <c r="B298" s="12" t="s">
@@ -5836,7 +5836,7 @@
       </c>
     </row>
     <row r="299" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A299" s="11" t="s">
+      <c r="A299" s="28" t="s">
         <v>453</v>
       </c>
       <c r="B299" s="12" t="s">
@@ -5847,7 +5847,7 @@
       </c>
     </row>
     <row r="300" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A300" s="11" t="s">
+      <c r="A300" s="28" t="s">
         <v>453</v>
       </c>
       <c r="B300" s="12" t="s">
@@ -5858,7 +5858,7 @@
       </c>
     </row>
     <row r="301" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A301" s="13" t="s">
+      <c r="A301" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B301" s="12" t="s">
@@ -5869,7 +5869,7 @@
       </c>
     </row>
     <row r="302" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A302" s="13" t="s">
+      <c r="A302" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B302" s="12" t="s">
@@ -5880,7 +5880,7 @@
       </c>
     </row>
     <row r="303" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A303" s="13" t="s">
+      <c r="A303" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B303" s="12" t="s">
@@ -5891,7 +5891,7 @@
       </c>
     </row>
     <row r="304" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A304" s="13" t="s">
+      <c r="A304" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B304" s="12" t="s">
@@ -5902,7 +5902,7 @@
       </c>
     </row>
     <row r="305" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A305" s="13" t="s">
+      <c r="A305" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B305" s="12" t="s">
@@ -5913,7 +5913,7 @@
       </c>
     </row>
     <row r="306" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A306" s="13" t="s">
+      <c r="A306" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B306" s="12" t="s">
@@ -5924,7 +5924,7 @@
       </c>
     </row>
     <row r="307" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A307" s="13" t="s">
+      <c r="A307" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B307" s="12" t="s">
@@ -5935,7 +5935,7 @@
       </c>
     </row>
     <row r="308" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A308" s="13" t="s">
+      <c r="A308" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B308" s="12" t="s">
@@ -5957,7 +5957,7 @@
       </c>
     </row>
     <row r="310" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A310" s="13" t="s">
+      <c r="A310" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B310" s="12" t="s">
@@ -5968,7 +5968,7 @@
       </c>
     </row>
     <row r="311" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A311" s="13" t="s">
+      <c r="A311" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B311" s="12" t="s">
@@ -5979,7 +5979,7 @@
       </c>
     </row>
     <row r="312" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A312" s="13" t="s">
+      <c r="A312" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B312" s="12" t="s">
@@ -5990,7 +5990,7 @@
       </c>
     </row>
     <row r="313" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A313" s="13" t="s">
+      <c r="A313" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B313" s="12" t="s">
@@ -6001,7 +6001,7 @@
       </c>
     </row>
     <row r="314" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A314" s="13" t="s">
+      <c r="A314" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B314" s="12" t="s">

--- a/DSA QUESTIONS 2.xlsx
+++ b/DSA QUESTIONS 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/938afabc2acb16cd/Desktop/Preparation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{DF2838FC-92B7-40FB-B0E8-D04845D9F61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71696CEB-2C01-417B-A74B-EF4E0D5066ED}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{DF2838FC-92B7-40FB-B0E8-D04845D9F61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{896A1CE2-9569-4FB9-9EFB-EC69DEDE6AE8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2751,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B315" sqref="B315"/>
+    <sheetView tabSelected="1" topLeftCell="A425" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B333" sqref="B333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6012,7 +6012,7 @@
       </c>
     </row>
     <row r="315" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A315" s="13" t="s">
+      <c r="A315" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B315" s="12" t="s">
@@ -6023,7 +6023,7 @@
       </c>
     </row>
     <row r="316" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A316" s="13" t="s">
+      <c r="A316" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B316" s="12" t="s">
@@ -6034,7 +6034,7 @@
       </c>
     </row>
     <row r="317" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A317" s="13" t="s">
+      <c r="A317" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B317" s="12" t="s">
@@ -6045,7 +6045,7 @@
       </c>
     </row>
     <row r="318" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A318" s="13" t="s">
+      <c r="A318" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B318" s="12" t="s">
@@ -6056,7 +6056,7 @@
       </c>
     </row>
     <row r="319" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A319" s="13" t="s">
+      <c r="A319" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B319" s="12" t="s">
@@ -6067,7 +6067,7 @@
       </c>
     </row>
     <row r="320" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A320" s="13" t="s">
+      <c r="A320" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B320" s="12" t="s">
@@ -6078,7 +6078,7 @@
       </c>
     </row>
     <row r="321" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A321" s="13" t="s">
+      <c r="A321" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B321" s="12" t="s">
@@ -6089,7 +6089,7 @@
       </c>
     </row>
     <row r="322" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A322" s="13" t="s">
+      <c r="A322" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B322" s="12" t="s">
@@ -6100,7 +6100,7 @@
       </c>
     </row>
     <row r="323" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A323" s="13" t="s">
+      <c r="A323" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B323" s="12" t="s">
@@ -6111,7 +6111,7 @@
       </c>
     </row>
     <row r="324" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A324" s="13" t="s">
+      <c r="A324" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B324" s="12" t="s">
@@ -6122,7 +6122,7 @@
       </c>
     </row>
     <row r="325" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A325" s="13" t="s">
+      <c r="A325" s="23" t="s">
         <v>453</v>
       </c>
       <c r="B325" s="12" t="s">
@@ -6133,7 +6133,7 @@
       </c>
     </row>
     <row r="326" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A326" s="15" t="s">
+      <c r="A326" s="31" t="s">
         <v>453</v>
       </c>
       <c r="B326" s="12" t="s">
@@ -6144,7 +6144,7 @@
       </c>
     </row>
     <row r="327" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A327" s="15" t="s">
+      <c r="A327" s="31" t="s">
         <v>453</v>
       </c>
       <c r="B327" s="12" t="s">
@@ -6155,7 +6155,7 @@
       </c>
     </row>
     <row r="328" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A328" s="15" t="s">
+      <c r="A328" s="31" t="s">
         <v>453</v>
       </c>
       <c r="B328" s="12" t="s">
@@ -6177,7 +6177,7 @@
       </c>
     </row>
     <row r="330" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A330" s="15" t="s">
+      <c r="A330" s="31" t="s">
         <v>453</v>
       </c>
       <c r="B330" s="12" t="s">
@@ -6188,7 +6188,7 @@
       </c>
     </row>
     <row r="331" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A331" s="15" t="s">
+      <c r="A331" s="31" t="s">
         <v>453</v>
       </c>
       <c r="B331" s="12" t="s">

--- a/DSA QUESTIONS 2.xlsx
+++ b/DSA QUESTIONS 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/938afabc2acb16cd/Desktop/Preparation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{DF2838FC-92B7-40FB-B0E8-D04845D9F61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{896A1CE2-9569-4FB9-9EFB-EC69DEDE6AE8}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{DF2838FC-92B7-40FB-B0E8-D04845D9F61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{652C3F69-47B0-4ADE-870C-452D865CE4B1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2751,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A425" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B333" sqref="B333"/>
+    <sheetView tabSelected="1" topLeftCell="A358" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B366" sqref="B366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6199,7 +6199,7 @@
       </c>
     </row>
     <row r="332" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A332" s="15" t="s">
+      <c r="A332" s="31" t="s">
         <v>453</v>
       </c>
       <c r="B332" s="12" t="s">
@@ -6340,7 +6340,7 @@
       <c r="C346" s="16"/>
     </row>
     <row r="347" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A347" s="11" t="s">
+      <c r="A347" s="28" t="s">
         <v>526</v>
       </c>
       <c r="B347" s="12" t="s">
@@ -6351,7 +6351,7 @@
       </c>
     </row>
     <row r="348" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A348" s="11" t="s">
+      <c r="A348" s="28" t="s">
         <v>526</v>
       </c>
       <c r="B348" s="12" t="s">
@@ -6362,7 +6362,7 @@
       </c>
     </row>
     <row r="349" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A349" s="11" t="s">
+      <c r="A349" s="28" t="s">
         <v>526</v>
       </c>
       <c r="B349" s="12" t="s">
@@ -6373,7 +6373,7 @@
       </c>
     </row>
     <row r="350" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A350" s="11" t="s">
+      <c r="A350" s="28" t="s">
         <v>526</v>
       </c>
       <c r="B350" s="12" t="s">
@@ -6384,7 +6384,7 @@
       </c>
     </row>
     <row r="351" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A351" s="11" t="s">
+      <c r="A351" s="28" t="s">
         <v>526</v>
       </c>
       <c r="B351" s="12" t="s">
@@ -6395,7 +6395,7 @@
       </c>
     </row>
     <row r="352" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A352" s="11" t="s">
+      <c r="A352" s="28" t="s">
         <v>526</v>
       </c>
       <c r="B352" s="12" t="s">
@@ -6406,7 +6406,7 @@
       </c>
     </row>
     <row r="353" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A353" s="11" t="s">
+      <c r="A353" s="28" t="s">
         <v>526</v>
       </c>
       <c r="B353" s="12" t="s">
@@ -6417,7 +6417,7 @@
       </c>
     </row>
     <row r="354" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A354" s="11" t="s">
+      <c r="A354" s="28" t="s">
         <v>526</v>
       </c>
       <c r="B354" s="12" t="s">
@@ -6428,7 +6428,7 @@
       </c>
     </row>
     <row r="355" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A355" s="11" t="s">
+      <c r="A355" s="28" t="s">
         <v>526</v>
       </c>
       <c r="B355" s="12" t="s">
@@ -6439,7 +6439,7 @@
       </c>
     </row>
     <row r="356" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A356" s="13" t="s">
+      <c r="A356" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B356" s="12" t="s">
@@ -6450,7 +6450,7 @@
       </c>
     </row>
     <row r="357" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A357" s="13" t="s">
+      <c r="A357" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B357" s="12" t="s">
@@ -6461,7 +6461,7 @@
       </c>
     </row>
     <row r="358" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A358" s="13" t="s">
+      <c r="A358" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B358" s="12" t="s">
@@ -6472,7 +6472,7 @@
       </c>
     </row>
     <row r="359" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A359" s="13" t="s">
+      <c r="A359" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B359" s="12" t="s">
@@ -6483,7 +6483,7 @@
       </c>
     </row>
     <row r="360" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A360" s="13" t="s">
+      <c r="A360" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B360" s="12" t="s">
@@ -6494,7 +6494,7 @@
       </c>
     </row>
     <row r="361" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A361" s="13" t="s">
+      <c r="A361" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B361" s="12" t="s">
@@ -6505,7 +6505,7 @@
       </c>
     </row>
     <row r="362" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A362" s="13" t="s">
+      <c r="A362" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B362" s="12" t="s">
@@ -6516,7 +6516,7 @@
       </c>
     </row>
     <row r="363" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A363" s="13" t="s">
+      <c r="A363" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B363" s="12" t="s">
@@ -6527,7 +6527,7 @@
       </c>
     </row>
     <row r="364" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A364" s="13" t="s">
+      <c r="A364" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B364" s="12" t="s">
@@ -6538,7 +6538,7 @@
       </c>
     </row>
     <row r="365" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A365" s="13" t="s">
+      <c r="A365" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B365" s="12" t="s">

--- a/DSA QUESTIONS 2.xlsx
+++ b/DSA QUESTIONS 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/938afabc2acb16cd/Desktop/Preparation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav\OneDrive\Desktop\Preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{DF2838FC-92B7-40FB-B0E8-D04845D9F61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{652C3F69-47B0-4ADE-870C-452D865CE4B1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03D5672-55B2-4A3C-8BCD-553DC59E409C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="643">
   <si>
     <t>DSA by Shradha Didi &amp; Aman Bhaiya</t>
   </si>
@@ -1948,6 +1948,12 @@
   </si>
   <si>
     <t>*** Stacks &amp; Queues ***</t>
+  </si>
+  <si>
+    <t>*** DP ***</t>
+  </si>
+  <si>
+    <t>****DP****</t>
   </si>
 </sst>
 </file>
@@ -2751,8 +2757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B366" sqref="B366"/>
+    <sheetView tabSelected="1" topLeftCell="A380" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B390" sqref="B390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6549,7 +6555,7 @@
       </c>
     </row>
     <row r="366" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A366" s="13" t="s">
+      <c r="A366" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B366" s="12" t="s">
@@ -6560,8 +6566,8 @@
       </c>
     </row>
     <row r="367" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A367" s="13" t="s">
-        <v>526</v>
+      <c r="A367" s="23" t="s">
+        <v>641</v>
       </c>
       <c r="B367" s="12" t="s">
         <v>558</v>
@@ -6582,7 +6588,7 @@
       </c>
     </row>
     <row r="369" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A369" s="13" t="s">
+      <c r="A369" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B369" s="12" t="s">
@@ -6593,7 +6599,7 @@
       </c>
     </row>
     <row r="370" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A370" s="13" t="s">
+      <c r="A370" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B370" s="12" t="s">
@@ -6604,7 +6610,7 @@
       </c>
     </row>
     <row r="371" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A371" s="13" t="s">
+      <c r="A371" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B371" s="12" t="s">
@@ -6626,7 +6632,7 @@
       </c>
     </row>
     <row r="373" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A373" s="13" t="s">
+      <c r="A373" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B373" s="12" t="s">
@@ -6637,7 +6643,7 @@
       </c>
     </row>
     <row r="374" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A374" s="13" t="s">
+      <c r="A374" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B374" s="12" t="s">
@@ -6648,7 +6654,7 @@
       </c>
     </row>
     <row r="375" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A375" s="13" t="s">
+      <c r="A375" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B375" s="12" t="s">
@@ -6659,7 +6665,7 @@
       </c>
     </row>
     <row r="376" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A376" s="13" t="s">
+      <c r="A376" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B376" s="12" t="s">
@@ -6670,8 +6676,8 @@
       </c>
     </row>
     <row r="377" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A377" s="13" t="s">
-        <v>526</v>
+      <c r="A377" s="23" t="s">
+        <v>642</v>
       </c>
       <c r="B377" s="12" t="s">
         <v>571</v>
@@ -6681,7 +6687,7 @@
       </c>
     </row>
     <row r="378" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A378" s="13" t="s">
+      <c r="A378" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B378" s="12" t="s">
@@ -6692,7 +6698,7 @@
       </c>
     </row>
     <row r="379" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A379" s="13" t="s">
+      <c r="A379" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B379" s="12" t="s">
@@ -6703,7 +6709,7 @@
       </c>
     </row>
     <row r="380" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A380" s="13" t="s">
+      <c r="A380" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B380" s="12" t="s">
@@ -6714,7 +6720,7 @@
       </c>
     </row>
     <row r="381" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A381" s="13" t="s">
+      <c r="A381" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B381" s="12" t="s">
@@ -6725,7 +6731,7 @@
       </c>
     </row>
     <row r="382" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A382" s="13" t="s">
+      <c r="A382" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B382" s="12" t="s">
@@ -6736,7 +6742,7 @@
       </c>
     </row>
     <row r="383" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A383" s="13" t="s">
+      <c r="A383" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B383" s="12" t="s">
@@ -6747,7 +6753,7 @@
       </c>
     </row>
     <row r="384" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A384" s="13" t="s">
+      <c r="A384" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B384" s="12" t="s">
@@ -6758,7 +6764,7 @@
       </c>
     </row>
     <row r="385" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A385" s="13" t="s">
+      <c r="A385" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B385" s="12" t="s">
@@ -6780,7 +6786,7 @@
       </c>
     </row>
     <row r="387" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A387" s="13" t="s">
+      <c r="A387" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B387" s="12" t="s">
@@ -6791,7 +6797,7 @@
       </c>
     </row>
     <row r="388" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A388" s="13" t="s">
+      <c r="A388" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B388" s="12" t="s">
@@ -6802,7 +6808,7 @@
       </c>
     </row>
     <row r="389" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A389" s="13" t="s">
+      <c r="A389" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B389" s="12" t="s">
